--- a/testData/ExecuteTask/Notification/ET_NT_OOFS_CTAfterDays_Test.xlsx
+++ b/testData/ExecuteTask/Notification/ET_NT_OOFS_CTAfterDays_Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="78">
   <si>
     <t>ModuleName</t>
   </si>
@@ -234,83 +234,34 @@
     <t>EditSaveName</t>
   </si>
   <si>
-    <t>02:35:55 PM</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>03-05-2024</t>
-  </si>
-  <si>
-    <t>03-05-2024 12:17:28 PM</t>
-  </si>
-  <si>
-    <t>ET118</t>
-  </si>
-  <si>
-    <t>03-05-2024 12:23:30 PM</t>
-  </si>
-  <si>
-    <t>ET119</t>
-  </si>
-  <si>
-    <t>ET120</t>
-  </si>
-  <si>
-    <t>tskNT_ExecuteTask_CTAfterDays</t>
-  </si>
-  <si>
-    <t>03-05-2024 01:05:06 PM</t>
-  </si>
-  <si>
-    <t>ET121</t>
-  </si>
-  <si>
-    <t>03-05-2024 01:13:30 PM</t>
-  </si>
-  <si>
-    <t>ET122</t>
-  </si>
-  <si>
-    <t>03-05-2024 01:57:11 PM</t>
-  </si>
-  <si>
-    <t>ET123</t>
-  </si>
-  <si>
-    <t>03-05-2024 02:03:12 PM</t>
-  </si>
-  <si>
-    <t>ET124</t>
-  </si>
-  <si>
-    <t>ET125</t>
-  </si>
-  <si>
-    <t>04-05-2024</t>
-  </si>
-  <si>
-    <t>04-05-2024 05:23:12 PM</t>
-  </si>
-  <si>
-    <t>ET162</t>
-  </si>
-  <si>
-    <t>04-05-2024 05:29:49 PM</t>
-  </si>
-  <si>
-    <t>ET163</t>
-  </si>
-  <si>
-    <t>ET164</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>02:35:55 AM</t>
+  </si>
+  <si>
+    <t>18-07-2024</t>
+  </si>
+  <si>
+    <t>21-07-2024 05:00:00 PM</t>
+  </si>
+  <si>
+    <t>ET2635</t>
+  </si>
+  <si>
+    <t>ET2636</t>
+  </si>
+  <si>
+    <t>ET2637</t>
+  </si>
+  <si>
+    <t>ET_CTAfterDays</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -649,42 +600,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView topLeftCell="Y1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
       <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="13.7109375"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="25.0"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="11.140625"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="12.5703125"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="14.7109375"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="20.0"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="12.5703125"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="11.140625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="16.85546875"/>
-    <col min="10" max="16" style="1" width="9.140625"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="14.140625"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="11.0"/>
-    <col min="19" max="19" style="1" width="9.140625"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="23.0"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="8.0"/>
-    <col min="22" max="23" style="1" width="9.140625"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="18.85546875"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="20.0"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="16.28515625"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="33.5703125"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="8.85546875"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="12.85546875"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="20.0"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="11.0"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="19.85546875"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="12.28515625"/>
-    <col min="34" max="16384" style="1" width="9.140625"/>
+    <col min="1" max="1" width="13.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16" width="9.1796875" style="1"/>
+    <col min="17" max="17" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.1796875" style="1"/>
+    <col min="20" max="20" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="9.1796875" style="1"/>
+    <col min="24" max="24" width="18.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="33.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -785,7 +736,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -816,8 +767,8 @@
       <c r="J2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s" s="1">
-        <v>88</v>
+      <c r="K2" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -825,11 +776,11 @@
       <c r="M2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N2" t="s" s="1">
-        <v>89</v>
-      </c>
-      <c r="O2" t="s" s="1">
-        <v>70</v>
+      <c r="N2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>34</v>
@@ -865,7 +816,7 @@
         <v>43</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AD2" s="1" t="s">
         <v>24</v>
@@ -876,11 +827,11 @@
       <c r="AF2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AG2" t="s" s="1">
-        <v>90</v>
-      </c>
-      <c r="AK2" t="s" s="1">
-        <v>71</v>
+      <c r="AG2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -897,32 +848,32 @@
   <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AA8" sqref="AA8"/>
+      <selection activeCell="Z14" sqref="Z14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.7109375"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7109375"/>
-    <col min="6" max="6" customWidth="true" width="21.42578125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.5703125"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="16.85546875"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="11.85546875"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="21.7109375"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="11.42578125"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="11.0"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="23.85546875"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="20.0"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="16.28515625"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="33.5703125"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="19.85546875"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="11.0"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="19.85546875"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="12.28515625"/>
+    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.453125" customWidth="1"/>
+    <col min="7" max="7" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="33.54296875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1023,7 +974,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -1054,8 +1005,8 @@
       <c r="J2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s" s="0">
-        <v>88</v>
+      <c r="K2" t="s">
+        <v>72</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1063,11 +1014,11 @@
       <c r="M2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N2" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="O2" t="s" s="0">
-        <v>70</v>
+      <c r="N2" t="s">
+        <v>73</v>
+      </c>
+      <c r="O2" t="s">
+        <v>71</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>34</v>
@@ -1103,7 +1054,7 @@
         <v>43</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1116,8 +1067,8 @@
       <c r="AF2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AG2" t="s" s="0">
-        <v>92</v>
+      <c r="AG2" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1134,22 +1085,22 @@
   <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AA14" sqref="AA14"/>
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.7109375"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7109375"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="24.28515625"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="16.85546875"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.140625"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="33.5703125"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="33.54296875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1250,7 +1201,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -1281,8 +1232,8 @@
       <c r="J2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s" s="0">
-        <v>88</v>
+      <c r="K2" t="s">
+        <v>72</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1290,11 +1241,11 @@
       <c r="M2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N2" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="O2" t="s" s="0">
-        <v>70</v>
+      <c r="N2" t="s">
+        <v>73</v>
+      </c>
+      <c r="O2" t="s">
+        <v>71</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>34</v>
@@ -1330,7 +1281,7 @@
         <v>43</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1343,8 +1294,8 @@
       <c r="AF2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AG2" t="s" s="0">
-        <v>93</v>
+      <c r="AG2" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1360,22 +1311,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AA3" sqref="AA3"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AD7" sqref="AD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.140625"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7109375"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="24.42578125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="16.140625"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="11.0"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="19.85546875"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1476,7 +1427,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -1507,8 +1458,8 @@
       <c r="J2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s" s="0">
-        <v>88</v>
+      <c r="K2" t="s">
+        <v>72</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1516,11 +1467,11 @@
       <c r="M2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N2" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="O2" t="s" s="0">
-        <v>70</v>
+      <c r="N2" t="s">
+        <v>73</v>
+      </c>
+      <c r="O2" t="s">
+        <v>71</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>34</v>
@@ -1556,7 +1507,7 @@
         <v>43</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1569,8 +1520,8 @@
       <c r="AF2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AG2" t="s" s="0">
-        <v>93</v>
+      <c r="AG2" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/testData/ExecuteTask/Notification/ET_NT_OOFS_CTAfterDays_Test.xlsx
+++ b/testData/ExecuteTask/Notification/ET_NT_OOFS_CTAfterDays_Test.xlsx
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="81">
   <si>
     <t>ModuleName</t>
   </si>
@@ -256,12 +256,22 @@
   </si>
   <si>
     <t>ET_CTAfterDays</t>
+  </si>
+  <si>
+    <t>13-01-2025</t>
+  </si>
+  <si>
+    <t>16-01-2025 05:00:00 PM</t>
+  </si>
+  <si>
+    <t>02:35:55 PM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -606,33 +616,33 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16" width="9.1796875" style="1"/>
-    <col min="17" max="17" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.1796875" style="1"/>
-    <col min="20" max="20" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="9.1796875" style="1"/>
-    <col min="24" max="24" width="18.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="33.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="13.7265625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="25.0"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="11.1796875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="12.54296875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="14.7265625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="20.0"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="12.54296875"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="11.1796875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="16.81640625"/>
+    <col min="10" max="16" style="1" width="9.1796875"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="14.1796875"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="11.0"/>
+    <col min="19" max="19" style="1" width="9.1796875"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="23.0"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="8.0"/>
+    <col min="22" max="23" style="1" width="9.1796875"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="18.81640625"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="20.0"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="16.26953125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="33.54296875"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="8.81640625"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="12.81640625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="20.0"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="11.0"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="19.81640625"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="12.26953125"/>
+    <col min="34" max="16384" style="1" width="9.1796875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.35">
@@ -767,8 +777,8 @@
       <c r="J2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>72</v>
+      <c r="K2" t="s" s="1">
+        <v>78</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -776,11 +786,11 @@
       <c r="M2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>71</v>
+      <c r="N2" t="s" s="1">
+        <v>79</v>
+      </c>
+      <c r="O2" t="s" s="1">
+        <v>80</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>34</v>
@@ -827,10 +837,8 @@
       <c r="AF2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AG2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AG2" s="1"/>
+      <c r="AK2" t="s" s="1">
         <v>70</v>
       </c>
     </row>
@@ -853,24 +861,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.453125" customWidth="1"/>
-    <col min="7" max="7" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="33.54296875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.7265625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
+    <col min="6" max="6" customWidth="true" width="21.453125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.54296875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.81640625"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="21.7265625"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="11.453125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="23.81640625"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="20.0"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="16.26953125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="33.54296875"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="19.81640625"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="19.81640625"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="12.26953125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
@@ -1005,8 +1013,8 @@
       <c r="J2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s">
-        <v>72</v>
+      <c r="K2" t="s" s="0">
+        <v>78</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1014,11 +1022,11 @@
       <c r="M2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N2" t="s">
-        <v>73</v>
-      </c>
-      <c r="O2" t="s">
-        <v>71</v>
+      <c r="N2" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="O2" t="s" s="0">
+        <v>80</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>34</v>
@@ -1067,7 +1075,7 @@
       <c r="AF2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AG2" t="s" s="0">
         <v>75</v>
       </c>
     </row>
@@ -1090,14 +1098,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="33.54296875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.7265625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="24.26953125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.81640625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.1796875"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="33.54296875"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="11.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
@@ -1232,8 +1240,8 @@
       <c r="J2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s">
-        <v>72</v>
+      <c r="K2" t="s" s="0">
+        <v>78</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1241,11 +1249,11 @@
       <c r="M2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N2" t="s">
-        <v>73</v>
-      </c>
-      <c r="O2" t="s">
-        <v>71</v>
+      <c r="N2" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="O2" t="s" s="0">
+        <v>80</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>34</v>
@@ -1294,7 +1302,7 @@
       <c r="AF2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AG2" t="s" s="0">
         <v>76</v>
       </c>
     </row>
@@ -1317,13 +1325,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.1796875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="24.453125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.1796875"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="19.81640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
@@ -1458,8 +1466,8 @@
       <c r="J2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s">
-        <v>72</v>
+      <c r="K2" t="s" s="0">
+        <v>78</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1467,11 +1475,11 @@
       <c r="M2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N2" t="s">
-        <v>73</v>
-      </c>
-      <c r="O2" t="s">
-        <v>71</v>
+      <c r="N2" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="O2" t="s" s="0">
+        <v>80</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>34</v>
@@ -1520,7 +1528,7 @@
       <c r="AF2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AG2" t="s" s="0">
         <v>76</v>
       </c>
     </row>
